--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cd274-Cd80.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cd274-Cd80.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>32.09065066666667</v>
+        <v>10.37574666666667</v>
       </c>
       <c r="H2">
-        <v>96.271952</v>
+        <v>31.12724</v>
       </c>
       <c r="I2">
-        <v>0.946743898370603</v>
+        <v>0.8643482197679554</v>
       </c>
       <c r="J2">
-        <v>0.9467438983706029</v>
+        <v>0.8643482197679554</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>26.499453</v>
+        <v>0.08106466666666667</v>
       </c>
       <c r="N2">
-        <v>79.49835900000001</v>
+        <v>0.243194</v>
       </c>
       <c r="O2">
-        <v>0.7877954840311897</v>
+        <v>0.01252465659474717</v>
       </c>
       <c r="P2">
-        <v>0.7877954840311898</v>
+        <v>0.01252465659474717</v>
       </c>
       <c r="Q2">
-        <v>850.3846890807521</v>
+        <v>0.8411064449511112</v>
       </c>
       <c r="R2">
-        <v>7653.462201726768</v>
+        <v>7.56995800456</v>
       </c>
       <c r="S2">
-        <v>0.7458405676704447</v>
+        <v>0.0108256646308747</v>
       </c>
       <c r="T2">
-        <v>0.7458405676704447</v>
+        <v>0.0108256646308747</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>32.09065066666667</v>
+        <v>10.37574666666667</v>
       </c>
       <c r="H3">
-        <v>96.271952</v>
+        <v>31.12724</v>
       </c>
       <c r="I3">
-        <v>0.946743898370603</v>
+        <v>0.8643482197679554</v>
       </c>
       <c r="J3">
-        <v>0.9467438983706029</v>
+        <v>0.8643482197679554</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>17.981423</v>
       </c>
       <c r="O3">
-        <v>0.1781883804149286</v>
+        <v>0.926055528343168</v>
       </c>
       <c r="P3">
-        <v>0.1781883804149287</v>
+        <v>0.926055528343168</v>
       </c>
       <c r="Q3">
-        <v>192.3451879941884</v>
+        <v>62.19022991805777</v>
       </c>
       <c r="R3">
-        <v>1731.106691947696</v>
+        <v>559.7120692625199</v>
       </c>
       <c r="S3">
-        <v>0.1686987619183735</v>
+        <v>0.8004344473296906</v>
       </c>
       <c r="T3">
-        <v>0.1686987619183735</v>
+        <v>0.8004344473296906</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,46 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>32.09065066666667</v>
+        <v>10.37574666666667</v>
       </c>
       <c r="H4">
-        <v>96.271952</v>
+        <v>31.12724</v>
       </c>
       <c r="I4">
-        <v>0.946743898370603</v>
+        <v>0.8643482197679554</v>
       </c>
       <c r="J4">
-        <v>0.9467438983706029</v>
+        <v>0.8643482197679554</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.144217</v>
+        <v>0.397534</v>
       </c>
       <c r="N4">
-        <v>3.432650999999999</v>
+        <v>1.192602</v>
       </c>
       <c r="O4">
-        <v>0.03401613555388164</v>
+        <v>0.06141981506208485</v>
       </c>
       <c r="P4">
-        <v>0.03401613555388164</v>
+        <v>0.06141981506208484</v>
       </c>
       <c r="Q4">
-        <v>36.71866803386133</v>
+        <v>4.124712075386666</v>
       </c>
       <c r="R4">
-        <v>330.4680123047519</v>
+        <v>37.12240867847999</v>
       </c>
       <c r="S4">
-        <v>0.03220456878178478</v>
+        <v>0.05308810780739009</v>
       </c>
       <c r="T4">
-        <v>0.03220456878178478</v>
+        <v>0.05308810780739008</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>3.463712</v>
       </c>
       <c r="I5">
-        <v>0.03406234249527876</v>
+        <v>0.09618113591146868</v>
       </c>
       <c r="J5">
-        <v>0.03406234249527877</v>
+        <v>0.09618113591146869</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>26.499453</v>
+        <v>0.08106466666666667</v>
       </c>
       <c r="N5">
-        <v>79.49835900000001</v>
+        <v>0.243194</v>
       </c>
       <c r="O5">
-        <v>0.7877954840311897</v>
+        <v>0.01252465659474717</v>
       </c>
       <c r="P5">
-        <v>0.7877954840311898</v>
+        <v>0.01252465659474717</v>
       </c>
       <c r="Q5">
-        <v>30.595491116512</v>
+        <v>0.09359488623644445</v>
       </c>
       <c r="R5">
-        <v>275.3594200486081</v>
+        <v>0.8423539761280001</v>
       </c>
       <c r="S5">
-        <v>0.0268341595933043</v>
+        <v>0.00120463569818385</v>
       </c>
       <c r="T5">
-        <v>0.0268341595933043</v>
+        <v>0.00120463569818385</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3.463712</v>
       </c>
       <c r="I6">
-        <v>0.03406234249527876</v>
+        <v>0.09618113591146868</v>
       </c>
       <c r="J6">
-        <v>0.03406234249527877</v>
+        <v>0.09618113591146869</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>17.981423</v>
       </c>
       <c r="O6">
-        <v>0.1781883804149286</v>
+        <v>0.926055528343168</v>
       </c>
       <c r="P6">
-        <v>0.1781883804149287</v>
+        <v>0.926055528343168</v>
       </c>
       <c r="Q6">
         <v>6.92027451357511</v>
@@ -818,10 +818,10 @@
         <v>62.282470622176</v>
       </c>
       <c r="S6">
-        <v>0.006069513642372321</v>
+        <v>0.08906907263314118</v>
       </c>
       <c r="T6">
-        <v>0.006069513642372324</v>
+        <v>0.08906907263314119</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,40 +850,40 @@
         <v>3.463712</v>
       </c>
       <c r="I7">
-        <v>0.03406234249527876</v>
+        <v>0.09618113591146868</v>
       </c>
       <c r="J7">
-        <v>0.03406234249527877</v>
+        <v>0.09618113591146869</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>1.144217</v>
+        <v>0.397534</v>
       </c>
       <c r="N7">
-        <v>3.432650999999999</v>
+        <v>1.192602</v>
       </c>
       <c r="O7">
-        <v>0.03401613555388164</v>
+        <v>0.06141981506208485</v>
       </c>
       <c r="P7">
-        <v>0.03401613555388164</v>
+        <v>0.06141981506208484</v>
       </c>
       <c r="Q7">
-        <v>1.321079384501333</v>
+        <v>0.4589810954026666</v>
       </c>
       <c r="R7">
-        <v>11.889714460512</v>
+        <v>4.130829858624</v>
       </c>
       <c r="S7">
-        <v>0.001158669259602146</v>
+        <v>0.005907427580143653</v>
       </c>
       <c r="T7">
-        <v>0.001158669259602146</v>
+        <v>0.005907427580143654</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.6505880000000001</v>
+        <v>0.4738106666666667</v>
       </c>
       <c r="H8">
-        <v>1.951764</v>
+        <v>1.421432</v>
       </c>
       <c r="I8">
-        <v>0.01919375913411833</v>
+        <v>0.03947064432057595</v>
       </c>
       <c r="J8">
-        <v>0.01919375913411833</v>
+        <v>0.03947064432057595</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>26.499453</v>
+        <v>0.08106466666666667</v>
       </c>
       <c r="N8">
-        <v>79.49835900000001</v>
+        <v>0.243194</v>
       </c>
       <c r="O8">
-        <v>0.7877954840311897</v>
+        <v>0.01252465659474717</v>
       </c>
       <c r="P8">
-        <v>0.7877954840311898</v>
+        <v>0.01252465659474717</v>
       </c>
       <c r="Q8">
-        <v>17.240226128364</v>
+        <v>0.03840930375644445</v>
       </c>
       <c r="R8">
-        <v>155.162035155276</v>
+        <v>0.345683733808</v>
       </c>
       <c r="S8">
-        <v>0.01512075676744082</v>
+        <v>0.0004943562656886214</v>
       </c>
       <c r="T8">
-        <v>0.01512075676744082</v>
+        <v>0.0004943562656886214</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.6505880000000001</v>
+        <v>0.4738106666666667</v>
       </c>
       <c r="H9">
-        <v>1.951764</v>
+        <v>1.421432</v>
       </c>
       <c r="I9">
-        <v>0.01919375913411833</v>
+        <v>0.03947064432057595</v>
       </c>
       <c r="J9">
-        <v>0.01919375913411833</v>
+        <v>0.03947064432057595</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>17.981423</v>
       </c>
       <c r="O9">
-        <v>0.1781883804149286</v>
+        <v>0.926055528343168</v>
       </c>
       <c r="P9">
-        <v>0.1781883804149287</v>
+        <v>0.926055528343168</v>
       </c>
       <c r="Q9">
-        <v>3.899499342241334</v>
+        <v>2.839930006415111</v>
       </c>
       <c r="R9">
-        <v>35.095494080172</v>
+        <v>25.559370057736</v>
       </c>
       <c r="S9">
-        <v>0.003420104854182789</v>
+        <v>0.03655200838033622</v>
       </c>
       <c r="T9">
-        <v>0.003420104854182789</v>
+        <v>0.03655200838033622</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,46 +1030,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.6505880000000001</v>
+        <v>0.4738106666666667</v>
       </c>
       <c r="H10">
-        <v>1.951764</v>
+        <v>1.421432</v>
       </c>
       <c r="I10">
-        <v>0.01919375913411833</v>
+        <v>0.03947064432057595</v>
       </c>
       <c r="J10">
-        <v>0.01919375913411833</v>
+        <v>0.03947064432057595</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.144217</v>
+        <v>0.397534</v>
       </c>
       <c r="N10">
-        <v>3.432650999999999</v>
+        <v>1.192602</v>
       </c>
       <c r="O10">
-        <v>0.03401613555388164</v>
+        <v>0.06141981506208485</v>
       </c>
       <c r="P10">
-        <v>0.03401613555388164</v>
+        <v>0.06141981506208484</v>
       </c>
       <c r="Q10">
-        <v>0.744413849596</v>
+        <v>0.1883558495626667</v>
       </c>
       <c r="R10">
-        <v>6.699724646363999</v>
+        <v>1.695202646064</v>
       </c>
       <c r="S10">
-        <v>0.0006528975124947231</v>
+        <v>0.002424279674551104</v>
       </c>
       <c r="T10">
-        <v>0.0006528975124947231</v>
+        <v>0.002424279674551104</v>
       </c>
     </row>
   </sheetData>
